--- a/Soil/PSA_data.entry/Particle size DATA ENTRY_Sect06.xlsx
+++ b/Soil/PSA_data.entry/Particle size DATA ENTRY_Sect06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfper\Dropbox\DiStefano_WRFO_project\PSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfper\Documents\R\WRFO_git\Soil\PSA_data.entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A76A53-61B3-4F45-B685-91E19FD93137}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21B2A2-13D9-4810-89B6-1FFF803C3BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="228" windowWidth="9156" windowHeight="4632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'printable datasheet'!$R$1:$AH$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$Q$1:$AF$36</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="133">
   <si>
     <t>p(s)=particle dens.</t>
   </si>
@@ -2417,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView tabSelected="1" topLeftCell="Y13" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6911,7 +6918,9 @@
       <c r="AA18" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="AB18" s="86"/>
+      <c r="AB18" s="86" t="s">
+        <v>119</v>
+      </c>
       <c r="AC18" s="86" t="s">
         <v>124</v>
       </c>
@@ -10014,7 +10023,9 @@
       <c r="AA27" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="AB27" s="86"/>
+      <c r="AB27" s="86" t="s">
+        <v>125</v>
+      </c>
       <c r="AC27" s="86" t="s">
         <v>120</v>
       </c>
